--- a/pro/cell/2.xlsx
+++ b/pro/cell/2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="1">
   <si>
     <t>NULL</t>
   </si>
@@ -165,6 +165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -200,6 +217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="P425" sqref="P425"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="J587" sqref="J587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24411,8 +24445,8 @@
       <c r="H587" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I587" s="1" t="s">
-        <v>0</v>
+      <c r="I587" s="1">
+        <v>75.84</v>
       </c>
       <c r="J587" s="1" t="s">
         <v>0</v>
@@ -24452,8 +24486,8 @@
       <c r="H588" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I588" s="1" t="s">
-        <v>0</v>
+      <c r="I588" s="1">
+        <v>75.739999999999995</v>
       </c>
       <c r="J588" s="1" t="s">
         <v>0</v>
